--- a/results/31_08_2020_tser2/Таблица среднего уровня светимости_4.xlsx
+++ b/results/31_08_2020_tser2/Таблица среднего уровня светимости_4.xlsx
@@ -434,15 +434,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>luminosity_level</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>176.3812354047059</v>
